--- a/users.xlsx
+++ b/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Кее</t>
+          <t>Рр</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Кее</t>
+          <t>Пр</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Апр</t>
+          <t>Мр</t>
         </is>
       </c>
     </row>
@@ -721,6 +721,201 @@
         <is>
           <t>Родщ</t>
         </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:56:01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:01:57</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Кен</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.09.2925</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:03:44</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Кен</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:04:47</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>golmanpolina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ира</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3445</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.10.2025</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>592453359</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Быстро и понятно</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Не знаю</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Про</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:21:14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Кеп</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11.09.2025</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:24:47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Кее</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>785314750</v>
       </c>
     </row>
   </sheetData>
